--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IT\Business Intelligence\UiPath\Projects\REF_BottomLine_to_Synergy_WireDetails\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC894FDD-9FE2-4B7F-8DC1-237F18A3C487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1E496D-99F1-4CDE-BACD-B3278AFCDECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="2508" windowWidth="16416" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20910" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>REF_BottomLine_To_Synergy_WireDetails_Test</t>
+    <t>REF_BottomLine_To_Synergy_WireDetails_Prod</t>
   </si>
 </sst>
 </file>
@@ -239,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,15 +538,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1623,12 +1623,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1665,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2784,12 +2784,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
